--- a/Wind Renewable Energy/results.xlsx
+++ b/Wind Renewable Energy/results.xlsx
@@ -1,43 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home Projects\pvlib-python\Wind Renewable Energy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197123E9-DC4D-40B9-B502-C5F0C2F6879D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="albedo_results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="albedo_results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Albedo</t>
+  </si>
+  <si>
+    <t>Max BPV Power AC (W)</t>
+  </si>
+  <si>
+    <t>Max MPV Power AC (W)</t>
+  </si>
+  <si>
+    <t>Percent Difference (%)</t>
+  </si>
+  <si>
+    <t>Max BPV Power DC (W)</t>
+  </si>
+  <si>
+    <t>Max MPV Power DC (W)</t>
+  </si>
+  <si>
+    <t>Percent Difference (%)2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,94 +92,149 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="11">
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8CBCDA55-C83F-47B6-AD53-8BF6C562FEE2}" name="Table1" displayName="Table1" ref="B1:H10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="B1:H10" xr:uid="{8CBCDA55-C83F-47B6-AD53-8BF6C562FEE2}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{50FCA176-FDC0-4E7F-BA2E-88DF182A0EBE}" name="Albedo" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{8B327394-C21A-4AEA-934A-00027417D468}" name="Max BPV Power AC (W)" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{DF36FF62-85C9-4DC0-981B-B151E5939251}" name="Max MPV Power AC (W)" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{17BAB57A-C634-44F0-92C1-F73E5994D6B0}" name="Percent Difference (%)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{3FD05627-C3EE-4CEF-B026-7D49A02C5883}" name="Max BPV Power DC (W)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{14F5CF17-6A3F-45D6-A0A9-9C9E1B53E322}" name="Max MPV Power DC (W)" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{276CA3DD-1253-4473-8111-1D9F724029AA}" name="Percent Difference (%)2" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,291 +521,279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="8" width="11.109375" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Albedo</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Max BPV Power AC (W)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Max MPV Power AC (W)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Percent Difference (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Max BPV Power DC (W)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Max MPV Power DC (W)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Percent Difference (%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
         <v>0.04</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4">
         <v>188.5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4">
         <v>184.29</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="4">
         <v>2.23</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="4">
         <v>224.64</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="4">
         <v>219.78</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="4">
         <v>2.16</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
         <v>0.06</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4">
         <v>189.33</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4">
         <v>184.48</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4">
         <v>2.56</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="4">
         <v>225.49</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="4">
         <v>219.88</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.49</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="H3" s="4">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>0.115</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4">
         <v>191.62</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4">
         <v>185.01</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="4">
         <v>3.45</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="4">
         <v>227.84</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="4">
         <v>220.18</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="4">
         <v>3.36</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
         <v>0.17</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4">
         <v>193.9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4">
         <v>185.54</v>
       </c>
-      <c r="E5" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5" s="4">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F5" s="4">
         <v>230.18</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="4">
         <v>220.47</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="4">
         <v>4.22</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
         <v>0.25</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4">
         <v>197.2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4">
         <v>186.3</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4">
         <v>5.53</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="4">
         <v>233.57</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="4">
         <v>220.9</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="4">
         <v>5.42</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
         <v>0.3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4">
         <v>199.25</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4">
         <v>186.78</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="4">
         <v>6.26</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="4">
         <v>235.69</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="4">
         <v>221.16</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="4">
         <v>6.16</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4">
         <v>0.4</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4">
         <v>203.33</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4">
         <v>187.74</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="4">
         <v>7.67</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="4">
         <v>239.91</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="4">
         <v>221.69</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="4">
         <v>7.59</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
         <v>0.6</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4">
         <v>213.34</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4">
         <v>189.65</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="4">
         <v>11.1</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="4">
         <v>250.37</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="4">
         <v>222.71</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="4">
         <v>11.05</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4">
         <v>0.85</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4">
         <v>227.14</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4">
         <v>192.03</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="4">
         <v>15.46</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="4">
         <v>264.98</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="4">
         <v>223.97</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="4">
         <v>15.48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Wind Renewable Energy/results.xlsx
+++ b/Wind Renewable Energy/results.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home Projects\pvlib-python\Wind Renewable Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197123E9-DC4D-40B9-B502-C5F0C2F6879D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9538DB2-8FB1-4851-974A-B2021A28FCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="albedo_results" sheetId="1" r:id="rId1"/>
+    <sheet name="location_results" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
-    <t>Albedo</t>
+    <t>Site Location</t>
   </si>
   <si>
     <t>Max BPV Power AC (W)</t>
@@ -40,14 +40,41 @@
     <t>Max MPV Power DC (W)</t>
   </si>
   <si>
-    <t>Percent Difference (%)2</t>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Moscow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,20 +87,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -83,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -106,109 +119,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -221,20 +145,1191 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8CBCDA55-C83F-47B6-AD53-8BF6C562FEE2}" name="Table1" displayName="Table1" ref="B1:H10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="B1:H10" xr:uid="{8CBCDA55-C83F-47B6-AD53-8BF6C562FEE2}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{50FCA176-FDC0-4E7F-BA2E-88DF182A0EBE}" name="Albedo" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{8B327394-C21A-4AEA-934A-00027417D468}" name="Max BPV Power AC (W)" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{DF36FF62-85C9-4DC0-981B-B151E5939251}" name="Max MPV Power AC (W)" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{17BAB57A-C634-44F0-92C1-F73E5994D6B0}" name="Percent Difference (%)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{3FD05627-C3EE-4CEF-B026-7D49A02C5883}" name="Max BPV Power DC (W)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{14F5CF17-6A3F-45D6-A0A9-9C9E1B53E322}" name="Max MPV Power DC (W)" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{276CA3DD-1253-4473-8111-1D9F724029AA}" name="Percent Difference (%)2" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>bPV Power Increase</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Site Location</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DC System</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>location_results!$B$2:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dubai</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cairo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sydney</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Los Angeles</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tokyo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>New York City</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Paris</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>London</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Moscow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>location_results!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F533-44E4-9F99-B84B933ADCFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>AC System</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>location_results!$B$2:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dubai</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cairo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sydney</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Los Angeles</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tokyo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>New York City</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Paris</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>London</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Moscow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>location_results!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F533-44E4-9F99-B84B933ADCFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2107286847"/>
+        <c:axId val="2107274367"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2107286847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Location</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46200505670736114"/>
+              <c:y val="0.83059517922578519"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2107274367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2107274367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent Increase</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2107286847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41799398011028438"/>
+          <c:y val="0.90388438763995083"/>
+          <c:w val="0.2848245804136868"/>
+          <c:h val="6.7935258092738413E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1330C65-C3F0-966F-A85B-118926F75703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,278 +1617,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H10"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="8" width="11.109375" style="4" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="C2" s="4">
-        <v>188.5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>184.29</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2.23</v>
-      </c>
-      <c r="F2" s="4">
-        <v>224.64</v>
-      </c>
-      <c r="G2" s="4">
-        <v>219.78</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2.16</v>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>247.69</v>
+      </c>
+      <c r="D2">
+        <v>232.99</v>
+      </c>
+      <c r="E2">
+        <v>5.93</v>
+      </c>
+      <c r="F2">
+        <v>287.24</v>
+      </c>
+      <c r="G2">
+        <v>268.39</v>
+      </c>
+      <c r="H2">
+        <v>6.56</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="C3" s="4">
-        <v>189.33</v>
-      </c>
-      <c r="D3" s="4">
-        <v>184.48</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2.56</v>
-      </c>
-      <c r="F3" s="4">
-        <v>225.49</v>
-      </c>
-      <c r="G3" s="4">
-        <v>219.88</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2.4900000000000002</v>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>206.73</v>
+      </c>
+      <c r="D3">
+        <v>193.45</v>
+      </c>
+      <c r="E3">
+        <v>6.42</v>
+      </c>
+      <c r="F3">
+        <v>243.45</v>
+      </c>
+      <c r="G3">
+        <v>227.79</v>
+      </c>
+      <c r="H3">
+        <v>6.43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.115</v>
-      </c>
-      <c r="C4" s="4">
-        <v>191.62</v>
-      </c>
-      <c r="D4" s="4">
-        <v>185.01</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3.45</v>
-      </c>
-      <c r="F4" s="4">
-        <v>227.84</v>
-      </c>
-      <c r="G4" s="4">
-        <v>220.18</v>
-      </c>
-      <c r="H4" s="4">
-        <v>3.36</v>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>195.45</v>
+      </c>
+      <c r="D4">
+        <v>183.51</v>
+      </c>
+      <c r="E4">
+        <v>6.11</v>
+      </c>
+      <c r="F4">
+        <v>231.77</v>
+      </c>
+      <c r="G4">
+        <v>217.94</v>
+      </c>
+      <c r="H4">
+        <v>5.97</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="C5" s="4">
-        <v>193.9</v>
-      </c>
-      <c r="D5" s="4">
-        <v>185.54</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="F5" s="4">
-        <v>230.18</v>
-      </c>
-      <c r="G5" s="4">
-        <v>220.47</v>
-      </c>
-      <c r="H5" s="4">
-        <v>4.22</v>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>238.39</v>
+      </c>
+      <c r="D5">
+        <v>226.56</v>
+      </c>
+      <c r="E5">
+        <v>4.96</v>
+      </c>
+      <c r="F5">
+        <v>277.08999999999997</v>
+      </c>
+      <c r="G5">
+        <v>262.17</v>
+      </c>
+      <c r="H5">
+        <v>5.38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C6" s="4">
-        <v>197.2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>186.3</v>
-      </c>
-      <c r="E6" s="4">
-        <v>5.53</v>
-      </c>
-      <c r="F6" s="4">
-        <v>233.57</v>
-      </c>
-      <c r="G6" s="4">
-        <v>220.9</v>
-      </c>
-      <c r="H6" s="4">
-        <v>5.42</v>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>192.29</v>
+      </c>
+      <c r="D6">
+        <v>181.09</v>
+      </c>
+      <c r="E6">
+        <v>5.82</v>
+      </c>
+      <c r="F6">
+        <v>228.52</v>
+      </c>
+      <c r="G6">
+        <v>215.65</v>
+      </c>
+      <c r="H6">
+        <v>5.63</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>199.25</v>
-      </c>
-      <c r="D7" s="4">
-        <v>186.78</v>
-      </c>
-      <c r="E7" s="4">
-        <v>6.26</v>
-      </c>
-      <c r="F7" s="4">
-        <v>235.69</v>
-      </c>
-      <c r="G7" s="4">
-        <v>221.16</v>
-      </c>
-      <c r="H7" s="4">
-        <v>6.16</v>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>207.67</v>
+      </c>
+      <c r="D7">
+        <v>199.83</v>
+      </c>
+      <c r="E7">
+        <v>3.78</v>
+      </c>
+      <c r="F7">
+        <v>244.44</v>
+      </c>
+      <c r="G7">
+        <v>235.17</v>
+      </c>
+      <c r="H7">
+        <v>3.79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>203.33</v>
-      </c>
-      <c r="D8" s="4">
-        <v>187.74</v>
-      </c>
-      <c r="E8" s="4">
-        <v>7.67</v>
-      </c>
-      <c r="F8" s="4">
-        <v>239.91</v>
-      </c>
-      <c r="G8" s="4">
-        <v>221.69</v>
-      </c>
-      <c r="H8" s="4">
-        <v>7.59</v>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>190.01</v>
+      </c>
+      <c r="D8">
+        <v>182.4</v>
+      </c>
+      <c r="E8">
+        <v>4.01</v>
+      </c>
+      <c r="F8">
+        <v>226.18</v>
+      </c>
+      <c r="G8">
+        <v>217.46</v>
+      </c>
+      <c r="H8">
+        <v>3.86</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="C9" s="4">
-        <v>213.34</v>
-      </c>
-      <c r="D9" s="4">
-        <v>189.65</v>
-      </c>
-      <c r="E9" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>250.37</v>
-      </c>
-      <c r="G9" s="4">
-        <v>222.71</v>
-      </c>
-      <c r="H9" s="4">
-        <v>11.05</v>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>149.5</v>
+      </c>
+      <c r="D9">
+        <v>142.41999999999999</v>
+      </c>
+      <c r="E9">
+        <v>4.74</v>
+      </c>
+      <c r="F9">
+        <v>185.44</v>
+      </c>
+      <c r="G9">
+        <v>177.77</v>
+      </c>
+      <c r="H9">
+        <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
-      <c r="B10" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="C10" s="4">
-        <v>227.14</v>
-      </c>
-      <c r="D10" s="4">
-        <v>192.03</v>
-      </c>
-      <c r="E10" s="4">
-        <v>15.46</v>
-      </c>
-      <c r="F10" s="4">
-        <v>264.98</v>
-      </c>
-      <c r="G10" s="4">
-        <v>223.97</v>
-      </c>
-      <c r="H10" s="4">
-        <v>15.48</v>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>131.62</v>
+      </c>
+      <c r="D10">
+        <v>123.64</v>
+      </c>
+      <c r="E10">
+        <v>6.06</v>
+      </c>
+      <c r="F10">
+        <v>167.86</v>
+      </c>
+      <c r="G10">
+        <v>159.46</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>143.03</v>
+      </c>
+      <c r="D11">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="E11">
+        <v>4.08</v>
+      </c>
+      <c r="F11">
+        <v>179.05</v>
+      </c>
+      <c r="G11">
+        <v>172.78</v>
+      </c>
+      <c r="H11">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>